--- a/data/financial_statements/soci/SHW.xlsx
+++ b/data/financial_statements/soci/SHW.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,144 +607,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>6047000000</v>
+        <v>6047400000</v>
       </c>
       <c r="C2">
-        <v>5872000000</v>
+        <v>5872300000</v>
       </c>
       <c r="D2">
-        <v>4999000000</v>
+        <v>4998700000</v>
       </c>
       <c r="E2">
-        <v>4762000000</v>
+        <v>4762100000</v>
       </c>
       <c r="F2">
-        <v>5147000000</v>
+        <v>5146700000</v>
       </c>
       <c r="G2">
         <v>5379800000</v>
@@ -739,17 +850,17 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.1749</v>
+        <v>0.175</v>
       </c>
       <c r="C3">
         <v>0.0915</v>
       </c>
       <c r="D3">
-        <v>0.0737</v>
+        <v>0.0736</v>
       </c>
       <c r="E3">
         <v>0.0609</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>3539000000</v>
+        <v>3458000000</v>
       </c>
       <c r="C4">
-        <v>3502000000</v>
+        <v>3423300000</v>
       </c>
       <c r="D4">
-        <v>3024000000</v>
+        <v>2945800000</v>
       </c>
       <c r="E4">
-        <v>2959000000</v>
+        <v>2882401000</v>
       </c>
       <c r="F4">
-        <v>3083000000</v>
+        <v>3007100000</v>
       </c>
       <c r="G4">
         <v>2968400000</v>
@@ -983,23 +1094,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>2508000000</v>
+        <v>2589400000</v>
       </c>
       <c r="C5">
-        <v>2371000000</v>
+        <v>2449000000</v>
       </c>
       <c r="D5">
-        <v>1975000000</v>
+        <v>2052900000</v>
       </c>
       <c r="E5">
-        <v>1803000000</v>
+        <v>1879699000</v>
       </c>
       <c r="F5">
-        <v>2063000000</v>
+        <v>2139600000</v>
       </c>
       <c r="G5">
         <v>2411400000</v>
@@ -1105,8 +1216,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1514200000</v>
@@ -1121,7 +1232,7 @@
         <v>1430500000</v>
       </c>
       <c r="F6">
-        <v>1369000000</v>
+        <v>1367800000</v>
       </c>
       <c r="G6">
         <v>1432600000</v>
@@ -1227,8 +1338,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>993899900</v>
@@ -1349,8 +1460,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>104000000</v>
@@ -1390,23 +1501,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>3000000</v>
+        <v>101200000</v>
       </c>
       <c r="C9">
-        <v>1000000</v>
+        <v>92900000</v>
       </c>
       <c r="D9">
-        <v>1000000</v>
+        <v>88400000</v>
       </c>
       <c r="E9">
-        <v>3000000</v>
+        <v>84900000</v>
       </c>
       <c r="F9">
-        <v>1000000</v>
+        <v>83100000</v>
       </c>
       <c r="G9">
         <v>83500000</v>
@@ -1512,23 +1623,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>6000000</v>
+        <v>-116700000</v>
       </c>
       <c r="C10">
-        <v>-13000000</v>
+        <v>-107100000</v>
       </c>
       <c r="D10">
-        <v>-15000000</v>
+        <v>-103800000</v>
       </c>
       <c r="E10">
-        <v>23000000</v>
+        <v>-64000000</v>
       </c>
       <c r="F10">
-        <v>3000000</v>
+        <v>-84100000</v>
       </c>
       <c r="G10">
         <v>-81800000</v>
@@ -1634,23 +1745,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>877000000</v>
+        <v>877200000</v>
       </c>
       <c r="C11">
-        <v>740000000</v>
+        <v>739900000</v>
       </c>
       <c r="D11">
-        <v>461000000</v>
+        <v>461100000</v>
       </c>
       <c r="E11">
-        <v>309000000</v>
+        <v>308900100</v>
       </c>
       <c r="F11">
-        <v>612000000</v>
+        <v>611500000</v>
       </c>
       <c r="G11">
         <v>819200000</v>
@@ -1756,23 +1867,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>192000000</v>
+        <v>192100000</v>
       </c>
       <c r="C12">
         <v>162000000</v>
       </c>
       <c r="D12">
-        <v>90000000</v>
+        <v>90300000</v>
       </c>
       <c r="E12">
-        <v>5000000</v>
+        <v>4900000</v>
       </c>
       <c r="F12">
-        <v>109000000</v>
+        <v>109300000</v>
       </c>
       <c r="G12">
         <v>170600000</v>
@@ -1878,8 +1989,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>685100000</v>
@@ -2000,8 +2111,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I14">
         <v>-100</v>
@@ -2044,23 +2155,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>685000000</v>
+        <v>685100000</v>
       </c>
       <c r="C15">
-        <v>578000000</v>
+        <v>577900000</v>
       </c>
       <c r="D15">
-        <v>371000000</v>
+        <v>370800000</v>
       </c>
       <c r="E15">
         <v>304000000</v>
       </c>
       <c r="F15">
-        <v>502000000</v>
+        <v>502200000</v>
       </c>
       <c r="G15">
         <v>648600000</v>
@@ -2166,23 +2277,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="C16">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="D16">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="E16">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="F16">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="G16">
         <v>2.47</v>
@@ -2288,8 +2399,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2.62</v>
@@ -2410,23 +2521,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>258000000</v>
+        <v>257700000</v>
       </c>
       <c r="C18">
-        <v>258000000</v>
+        <v>258100000</v>
       </c>
       <c r="D18">
-        <v>259000000</v>
+        <v>258800000</v>
       </c>
       <c r="E18">
-        <v>261000000</v>
+        <v>262500000</v>
       </c>
       <c r="F18">
-        <v>262000000</v>
+        <v>261600000</v>
       </c>
       <c r="G18">
         <v>262800000</v>
@@ -2532,23 +2643,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>261000000</v>
+        <v>261100000</v>
       </c>
       <c r="C19">
-        <v>262000000</v>
+        <v>261800000</v>
       </c>
       <c r="D19">
-        <v>263000000</v>
+        <v>263100000</v>
       </c>
       <c r="E19">
-        <v>261000000</v>
+        <v>267100000</v>
       </c>
       <c r="F19">
-        <v>267000000</v>
+        <v>266600000</v>
       </c>
       <c r="G19">
         <v>267800000</v>
@@ -2654,23 +2765,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.4148</v>
+        <v>0.4282</v>
       </c>
       <c r="C20">
-        <v>0.4038</v>
+        <v>0.417</v>
       </c>
       <c r="D20">
-        <v>0.3951</v>
+        <v>0.4107</v>
       </c>
       <c r="E20">
-        <v>0.3786</v>
+        <v>0.3947</v>
       </c>
       <c r="F20">
-        <v>0.4008</v>
+        <v>0.4157</v>
       </c>
       <c r="G20">
         <v>0.4482</v>
@@ -2776,8 +2887,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.1644</v>
@@ -2792,7 +2903,7 @@
         <v>0.07829999999999999</v>
       </c>
       <c r="F21">
-        <v>0.1351</v>
+        <v>0.1352</v>
       </c>
       <c r="G21">
         <v>0.1675</v>
@@ -2898,11 +3009,11 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.145</v>
+        <v>0.1451</v>
       </c>
       <c r="C22">
         <v>0.126</v>
@@ -2914,7 +3025,7 @@
         <v>0.0649</v>
       </c>
       <c r="F22">
-        <v>0.1189</v>
+        <v>0.1188</v>
       </c>
       <c r="G22">
         <v>0.1523</v>
@@ -3020,8 +3131,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1133</v>
@@ -3036,7 +3147,7 @@
         <v>0.0638</v>
       </c>
       <c r="F23">
-        <v>0.0975</v>
+        <v>0.09760000000000001</v>
       </c>
       <c r="G23">
         <v>0.1206</v>
@@ -3142,23 +3253,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>1221000000</v>
+        <v>1141700000</v>
       </c>
       <c r="C24">
-        <v>1089000000</v>
+        <v>991900000</v>
       </c>
       <c r="D24">
-        <v>820000000</v>
+        <v>710100400</v>
       </c>
       <c r="E24">
-        <v>618000000</v>
+        <v>513999900</v>
       </c>
       <c r="F24">
-        <v>934000000</v>
+        <v>836900100</v>
       </c>
       <c r="G24">
         <v>1051500000</v>
@@ -3264,8 +3375,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>993899900</v>
@@ -3386,8 +3497,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>685100000</v>
@@ -3508,8 +3619,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="U27">
         <v>-60000</v>
@@ -3519,23 +3630,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>685000000</v>
+        <v>685100000</v>
       </c>
       <c r="C28">
-        <v>578000000</v>
+        <v>577900000</v>
       </c>
       <c r="D28">
-        <v>371000000</v>
+        <v>370800000</v>
       </c>
       <c r="E28">
-        <v>304000000</v>
+        <v>304000200</v>
       </c>
       <c r="F28">
-        <v>502000000</v>
+        <v>502200000</v>
       </c>
       <c r="G28">
         <v>648600000</v>
@@ -3641,8 +3752,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2.6585</v>
@@ -3763,8 +3874,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2.6239</v>
@@ -3885,8 +3996,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="U31">
         <v>0.0005999999999999999</v>
@@ -3902,8 +4013,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="U32">
         <v>0.0008</v>
@@ -3919,8 +4030,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2.6585</v>
@@ -4041,8 +4152,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2.6239</v>
@@ -4163,8 +4274,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>261100000</v>
@@ -4285,23 +4396,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.2019</v>
+        <v>0.1888</v>
       </c>
       <c r="C36">
-        <v>0.1855</v>
+        <v>0.1689</v>
       </c>
       <c r="D36">
-        <v>0.164</v>
+        <v>0.1421</v>
       </c>
       <c r="E36">
-        <v>0.1298</v>
+        <v>0.1079</v>
       </c>
       <c r="F36">
-        <v>0.1815</v>
+        <v>0.1626</v>
       </c>
       <c r="G36">
         <v>0.1955</v>
@@ -4407,23 +4518,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.1057</v>
+        <v>0.1228</v>
       </c>
       <c r="C37">
-        <v>0.1045</v>
+        <v>0.1213</v>
       </c>
       <c r="D37">
-        <v>0.0053</v>
+        <v>0.0273</v>
       </c>
       <c r="E37">
-        <v>0.0407</v>
+        <v>0.0626</v>
       </c>
       <c r="F37">
-        <v>0.165</v>
+        <v>0.1846</v>
       </c>
       <c r="G37">
         <v>0.1869</v>
